--- a/data_in/Countys_smartrice.xlsx
+++ b/data_in/Countys_smartrice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trubin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trubin\Desktop\Landviser LLC\git repos\soils-ssurgo\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954C2A96-DFB3-4309-A6F4-1977A363F3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236B0CBF-4794-4A35-85A9-0508AA91A922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="8766" xr2:uid="{E6DDC3F0-D229-4B89-904C-5539883CB6A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="29">
   <si>
     <t>NAME</t>
   </si>
@@ -127,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,8 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +473,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A20" activeCellId="2" sqref="A11:D12 A6:D6 A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -548,16 +555,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5041</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -618,30 +625,30 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5003</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>5017</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -744,16 +751,16 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>5043</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data_in/Countys_smartrice.xlsx
+++ b/data_in/Countys_smartrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trubin\Desktop\Landviser LLC\git repos\soils-ssurgo\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236B0CBF-4794-4A35-85A9-0508AA91A922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81183A7D-2483-4FDA-857B-D49187C1C628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="8766" xr2:uid="{E6DDC3F0-D229-4B89-904C-5539883CB6A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="29">
   <si>
     <t>NAME</t>
   </si>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C234B32-A077-4C51-96AD-0BBB8A673DC9}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" activeCellId="2" sqref="A11:D12 A6:D6 A20:D20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -569,16 +569,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5021</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data_in/Countys_smartrice.xlsx
+++ b/data_in/Countys_smartrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trubin\Desktop\Landviser LLC\git repos\soils-ssurgo\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81183A7D-2483-4FDA-857B-D49187C1C628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BDFAC-154E-4AAF-BA80-6599FBB9F4F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="8766" xr2:uid="{E6DDC3F0-D229-4B89-904C-5539883CB6A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>NAME</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:D7"/>
+      <selection activeCell="D17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -499,58 +499,58 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5067</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5147</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>5035</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5093</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -583,44 +583,44 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>29181</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>29207</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>29143</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -653,100 +653,100 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>48039</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>29201</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>48481</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>48473</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>48201</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>5037</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>5111</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
